--- a/specsheet.xlsx
+++ b/specsheet.xlsx
@@ -7,19 +7,25 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet-1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet-2" sheetId="2" r:id="rId2"/>
+    <sheet name="sheet-3" sheetId="3" r:id="rId3"/>
+    <sheet name="sheet-4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$73</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'sheet-1'!$A$1:$L$73</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'sheet-2'!$A$1:$L$73</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'sheet-3'!$A$1:$L$73</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'sheet-4'!$A$1:$L$73</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="229">
-  <si>
-    <t>Flow Control Commune Pvt Ltd</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="290">
+  <si>
+    <t>Flow Control Commune</t>
   </si>
   <si>
     <t>Customer</t>
@@ -244,10 +250,10 @@
     <t>Kinematic Viscosity</t>
   </si>
   <si>
-    <t>Vapour Pressure</t>
-  </si>
-  <si>
-    <t>Liquid Pr. Recovery factor, Fl</t>
+    <t>Vapor Pressure</t>
+  </si>
+  <si>
+    <t>Liquid Pr. Recovery Factor, Fl</t>
   </si>
   <si>
     <t>Calculated Cv</t>
@@ -331,7 +337,7 @@
     <t>Trim Size / Type</t>
   </si>
   <si>
-    <t>Cv @90 Degree / Characteristic</t>
+    <t>CV/Characteristic</t>
   </si>
   <si>
     <t>Shaft Material</t>
@@ -604,6 +610,9 @@
     <t>Testing, Certification, Cleaning, Painting</t>
   </si>
   <si>
+    <t>Accessories &amp; Tubings</t>
+  </si>
+  <si>
     <t>Testing-1</t>
   </si>
   <si>
@@ -634,9 +643,6 @@
     <t>Warnings!!</t>
   </si>
   <si>
-    <t>FLOW CONTROL COMMUNE PVT LTD</t>
-  </si>
-  <si>
     <t>QMS/AE/002</t>
   </si>
   <si>
@@ -667,22 +673,145 @@
     <t>centipose</t>
   </si>
   <si>
+    <t>degree</t>
+  </si>
+  <si>
+    <t>dB</t>
+  </si>
+  <si>
+    <t>mach</t>
+  </si>
+  <si>
+    <t>inch</t>
+  </si>
+  <si>
+    <t>123890</t>
+  </si>
+  <si>
+    <t>PTFE / Ni-Resist</t>
+  </si>
+  <si>
+    <t>Bellow Seal</t>
+  </si>
+  <si>
+    <t>DPE</t>
+  </si>
+  <si>
+    <t>XRay-U/T</t>
+  </si>
+  <si>
+    <t>Metal Seal</t>
+  </si>
+  <si>
+    <t>ACT-1</t>
+  </si>
+  <si>
+    <t>Over</t>
+  </si>
+  <si>
+    <t>PTFE</t>
+  </si>
+  <si>
+    <t>UNS 32760 / SDSS</t>
+  </si>
+  <si>
+    <t>ANSI Class IV</t>
+  </si>
+  <si>
+    <t>Screwed BSPT</t>
+  </si>
+  <si>
+    <t>FF Serrated</t>
+  </si>
+  <si>
+    <t>butterfly</t>
+  </si>
+  <si>
+    <t>20-4401</t>
+  </si>
+  <si>
+    <t>316L SS ASTM A351 CF3M</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>B7M / 2HM</t>
+  </si>
+  <si>
+    <t>70.7</t>
+  </si>
+  <si>
+    <t>Spring &amp; Diaphragm</t>
+  </si>
+  <si>
+    <t>/1.5</t>
+  </si>
+  <si>
+    <t>105.0</t>
+  </si>
+  <si>
+    <t>AFO</t>
+  </si>
+  <si>
+    <t>80/60.0</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Side Mounted</t>
+  </si>
+  <si>
+    <t>Tissin</t>
+  </si>
+  <si>
+    <t>TS700R</t>
+  </si>
+  <si>
+    <t>4mA=Closed, 20mA=Open</t>
+  </si>
+  <si>
+    <t>Shavo</t>
+  </si>
+  <si>
+    <t>11-4SN-250M-M5KN-NN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>TVL-E20GLMM</t>
+  </si>
+  <si>
+    <t>I-BP1A</t>
+  </si>
+  <si>
+    <t>Asco</t>
+  </si>
+  <si>
+    <t>NFET8327B122,24 V DC</t>
+  </si>
+  <si>
+    <t>3/2 Way</t>
+  </si>
+  <si>
+    <t>Balancing</t>
+  </si>
+  <si>
+    <t>Trim Material</t>
+  </si>
+  <si>
+    <t>Soft Seat Material</t>
+  </si>
+  <si>
     <t>%</t>
   </si>
   <si>
-    <t>dB</t>
-  </si>
-  <si>
     <t>m/s</t>
   </si>
   <si>
-    <t>inch</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>ASTM A216 WCC</t>
+    <t>316L SS</t>
   </si>
   <si>
     <t>Standard</t>
@@ -691,7 +820,7 @@
     <t>Standard for Service</t>
   </si>
   <si>
-    <t>Modified</t>
+    <t>Ported</t>
   </si>
   <si>
     <t>over</t>
@@ -704,13 +833,73 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>globe</t>
+  </si>
+  <si>
+    <t>10-3401</t>
+  </si>
+  <si>
+    <t>ASTM A216 WCB</t>
+  </si>
+  <si>
+    <t>190.0</t>
+  </si>
+  <si>
+    <t>GRAPHITE</t>
+  </si>
+  <si>
+    <t>Neles</t>
+  </si>
+  <si>
+    <t>ND9100</t>
+  </si>
+  <si>
+    <t>SB-WP-A-A-MHW1-2-2-S</t>
+  </si>
+  <si>
+    <t>Rotex</t>
+  </si>
+  <si>
+    <t>30308-SL-5-2R-S2G+III-24DC-39-CO-H-SL</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>316SS</t>
+  </si>
+  <si>
+    <t>Seat Upstream</t>
+  </si>
+  <si>
+    <t>RF Serrated</t>
+  </si>
+  <si>
+    <t>10-2301</t>
+  </si>
+  <si>
+    <t>846.0</t>
+  </si>
+  <si>
+    <t>UNBALANCED</t>
+  </si>
+  <si>
+    <t>RPTFE</t>
+  </si>
+  <si>
+    <t>10-1301</t>
+  </si>
+  <si>
+    <t>1281.062</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -751,6 +940,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -766,7 +962,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -801,19 +997,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FFB2B2B2"/>
@@ -837,17 +1020,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -871,13 +1060,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>542754</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>33262</xdr:rowOff>
+      <xdr:colOff>358818</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63926</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="logo.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Logo.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -891,7 +1080,136 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6629400" y="0"/>
-          <a:ext cx="1371429" cy="604762"/>
+          <a:ext cx="1187493" cy="444926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>358818</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63926</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Logo.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6629400" y="0"/>
+          <a:ext cx="1187493" cy="444926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>358818</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63926</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Logo.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6629400" y="0"/>
+          <a:ext cx="1187493" cy="444926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>358818</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63926</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Logo.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6629400" y="0"/>
+          <a:ext cx="1187493" cy="444926"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1228,7 +1546,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>112</v>
       </c>
       <c r="D4" s="4"/>
@@ -1237,7 +1555,7 @@
       <c r="G4" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>159</v>
       </c>
       <c r="I4" s="4"/>
@@ -1250,8 +1568,8 @@
         <v>2</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="4">
-        <v>1</v>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1259,7 +1577,7 @@
       <c r="G5" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>160</v>
       </c>
       <c r="I5" s="4"/>
@@ -1279,7 +1597,7 @@
       <c r="G6" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>220</v>
       </c>
       <c r="I6" s="4"/>
@@ -1299,7 +1617,7 @@
       <c r="G7" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="5" t="s">
         <v>161</v>
       </c>
       <c r="I7" s="4"/>
@@ -1319,8 +1637,8 @@
       <c r="G8" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="H8" s="4">
-        <v>1</v>
+      <c r="H8" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -1339,8 +1657,8 @@
       <c r="G9" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>12</v>
+      <c r="H9" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1348,70 +1666,70 @@
       <c r="L9" s="4"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" t="s">
+      <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="I11" s="4">
-        <v>100</v>
-      </c>
-      <c r="J11" s="4" t="s">
+      <c r="I11" s="6">
+        <v>221</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" t="s">
+      <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="6">
         <v>275.5</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6" t="s">
+      <c r="E13" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6" t="s">
+      <c r="I13" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="L13" s="6"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1421,9 +1739,11 @@
         <v>212</v>
       </c>
       <c r="D14" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E14" s="4"/>
+        <v>7.8</v>
+      </c>
+      <c r="E14" s="4">
+        <v>7.8</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -1433,7 +1753,7 @@
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1445,7 +1765,9 @@
       <c r="D15" s="4">
         <v>10</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="4">
+        <v>10</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -1455,7 +1777,7 @@
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1465,9 +1787,11 @@
         <v>213</v>
       </c>
       <c r="D16" s="4">
-        <v>9.9</v>
-      </c>
-      <c r="E16" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="E16" s="4">
+        <v>7</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -1477,7 +1801,7 @@
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1487,9 +1811,11 @@
         <v>214</v>
       </c>
       <c r="D17" s="4">
-        <v>30</v>
-      </c>
-      <c r="E17" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="E17" s="4">
+        <v>80</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1499,7 +1825,7 @@
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1507,9 +1833,11 @@
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="E18" s="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -1519,7 +1847,7 @@
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1531,7 +1859,9 @@
       <c r="D19" s="4">
         <v>1</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="4">
+        <v>0.63</v>
+      </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1541,7 +1871,7 @@
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -1551,9 +1881,11 @@
         <v>213</v>
       </c>
       <c r="D20" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="E20" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -1563,7 +1895,7 @@
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1571,9 +1903,11 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="E21" s="4"/>
+        <v>0.87</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.87</v>
+      </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -1583,7 +1917,7 @@
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -1591,9 +1925,11 @@
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4">
-        <v>3691.779</v>
-      </c>
-      <c r="E22" s="4"/>
+        <v>4.939</v>
+      </c>
+      <c r="E22" s="4">
+        <v>5.206</v>
+      </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -1603,7 +1939,7 @@
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -1613,9 +1949,11 @@
         <v>216</v>
       </c>
       <c r="D23" s="4">
-        <v>64</v>
-      </c>
-      <c r="E23" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="E23" s="4">
+        <v>32</v>
+      </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -1625,7 +1963,7 @@
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -1635,9 +1973,11 @@
         <v>217</v>
       </c>
       <c r="D24" s="4">
-        <v>16.73</v>
-      </c>
-      <c r="E24" s="4"/>
+        <v>24.18</v>
+      </c>
+      <c r="E24" s="4">
+        <v>23.96</v>
+      </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -1647,7 +1987,7 @@
       <c r="L24" s="4"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -1657,9 +1997,11 @@
         <v>218</v>
       </c>
       <c r="D25" s="4">
-        <v>1.013</v>
-      </c>
-      <c r="E25" s="4"/>
+        <v>0.455</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.455</v>
+      </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -1669,7 +2011,7 @@
       <c r="L25" s="4"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -1679,9 +2021,11 @@
         <v>218</v>
       </c>
       <c r="D26" s="4">
-        <v>1.013</v>
-      </c>
-      <c r="E26" s="4"/>
+        <v>0.455</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.455</v>
+      </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -1691,7 +2035,7 @@
       <c r="L26" s="4"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -1703,7 +2047,9 @@
       <c r="D27" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>211</v>
+      </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -1713,11 +2059,11 @@
       <c r="L27" s="4"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1731,770 +2077,827 @@
       <c r="L28" s="4"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="D29" s="8"/>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="5" t="s">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="4" t="s">
+      <c r="C31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="7" t="s">
+      <c r="E31" s="5"/>
+      <c r="F31" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="J31" s="10"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="4" t="s">
+      <c r="C32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="7" t="s">
+      <c r="E32" s="5"/>
+      <c r="F32" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="J32" s="5"/>
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="7" t="s">
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="J33" s="5"/>
       <c r="K33" s="10"/>
       <c r="L33" s="10"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="7" t="s">
+      <c r="C34" s="5">
+        <v>10</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="J34" s="10"/>
       <c r="K34" s="10"/>
       <c r="L34" s="10"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="7" t="s">
+      <c r="C35" s="5">
+        <v>80</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="J35" s="5"/>
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="7" t="s">
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="J36" s="10"/>
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="7" t="s">
+      <c r="C37" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="J37" s="10"/>
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="4">
-        <v>16</v>
-      </c>
-      <c r="D38" s="4" t="s">
+      <c r="C38" s="6">
+        <v>3</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E38" s="4">
-        <v>600</v>
-      </c>
-      <c r="F38" s="7" t="s">
+      <c r="E38" s="6">
+        <v>900</v>
+      </c>
+      <c r="F38" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="7" t="s">
+      <c r="C39" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="7" t="s">
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="G40" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="7" t="s">
+      <c r="C41" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G41" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
+      <c r="H41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="5" t="s">
+      <c r="C42" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G42" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
+      <c r="G42" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="7" t="s">
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="G43" s="8" t="s">
+      <c r="G43" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="10"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5" t="s">
+        <v>247</v>
+      </c>
       <c r="L43" s="10"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="7" t="s">
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="J44" s="10"/>
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="7" t="s">
+      <c r="C45" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="10"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5" t="s">
+        <v>250</v>
+      </c>
       <c r="L45" s="10"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="7" t="s">
+      <c r="C46" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G46" s="8" t="s">
+      <c r="G46" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="J46" s="10"/>
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="7" t="s">
+      <c r="C47" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G47" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="10"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
       <c r="L47" s="10"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="7" t="s">
+      <c r="C48" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="J48" s="10"/>
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="7" t="s">
+      <c r="C49" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G49" s="8" t="s">
+      <c r="G49" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="7" t="s">
+      <c r="C50" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G50" s="8" t="s">
+      <c r="G50" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="10"/>
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="7" t="s">
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G51" s="8" t="s">
+      <c r="G51" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="10"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="L51" s="10"/>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="7" t="s">
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="10"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5" t="s">
+        <v>255</v>
+      </c>
       <c r="L52" s="10"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="7" t="s">
+      <c r="C53" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G53" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="J53" s="10"/>
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="7" t="s">
+      <c r="C54" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G54" s="8" t="s">
+      <c r="G54" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
       <c r="K54" s="10"/>
       <c r="L54" s="10"/>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="5" t="s">
+      <c r="C55" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="G55" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="7" t="s">
+      <c r="C56" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G56" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
+      <c r="G56" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H56" s="5"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="7" t="s">
+      <c r="C57" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G57" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
+      <c r="G57" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H57" s="5"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="7" t="s">
+      <c r="C58" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G58" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
+      <c r="G58" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H58" s="5"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
       <c r="K58" s="10"/>
       <c r="L58" s="10"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="7" t="s">
+      <c r="C59" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G59" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
+      <c r="G59" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H59" s="5"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="7" t="s">
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="G60" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
+      <c r="G60" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H60" s="5"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
       <c r="K60" s="10"/>
       <c r="L60" s="10"/>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="7" t="s">
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="G61" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
+      <c r="G61" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="H61" s="5"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
       <c r="K61" s="10"/>
       <c r="L61" s="10"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6" t="s">
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B63" s="4" t="s">
@@ -2518,7 +2921,7 @@
       </c>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B64" s="4"/>
@@ -2534,7 +2937,7 @@
       <c r="L64" s="4"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B65" s="4"/>
@@ -2550,7 +2953,7 @@
       <c r="L65" s="4"/>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="9" t="s">
         <v>61</v>
       </c>
       <c r="B66" s="4"/>
@@ -2566,7 +2969,7 @@
       <c r="L66" s="4"/>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B67" s="4"/>
@@ -2582,7 +2985,7 @@
       <c r="L67" s="4"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B68" s="4"/>
@@ -2598,7 +3001,7 @@
       <c r="L68" s="4"/>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="9" t="s">
         <v>64</v>
       </c>
       <c r="B69" s="4"/>
@@ -2614,7 +3017,7 @@
       <c r="L69" s="4"/>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B70" s="4"/>
@@ -2630,7 +3033,7 @@
       <c r="L70" s="4"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="9" t="s">
         <v>66</v>
       </c>
       <c r="B71" s="4"/>
@@ -2646,7 +3049,7 @@
       <c r="L71" s="4"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="9" t="s">
         <v>67</v>
       </c>
       <c r="B72" s="4"/>
@@ -2662,9 +3065,6 @@
       <c r="L72" s="4"/>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" t="s">
-        <v>205</v>
-      </c>
       <c r="J73" s="11" t="s">
         <v>206</v>
       </c>
@@ -2672,7 +3072,7 @@
       <c r="L73" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="175">
+  <mergeCells count="156">
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
@@ -2762,64 +3162,5239 @@
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="D28:L28"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="I31:L31"/>
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="I33:J33"/>
     <mergeCell ref="K33:L33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="I34:L34"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="K35:L35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
     <mergeCell ref="I39:J39"/>
     <mergeCell ref="K39:L39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I40:L40"/>
     <mergeCell ref="K41:L41"/>
     <mergeCell ref="I43:J43"/>
     <mergeCell ref="K43:L43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="I44:L44"/>
     <mergeCell ref="I45:J45"/>
     <mergeCell ref="K45:L45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="I46:L46"/>
     <mergeCell ref="I47:J47"/>
     <mergeCell ref="K47:L47"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="I48:L48"/>
     <mergeCell ref="I49:J49"/>
     <mergeCell ref="K49:L49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="I50:L50"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="K52:L52"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="I57:L57"/>
+    <mergeCell ref="I58:L58"/>
+    <mergeCell ref="I59:L59"/>
+    <mergeCell ref="I60:L60"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="J73:L73"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="B62:I62"/>
+    <mergeCell ref="B63:I63"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B65:I65"/>
+    <mergeCell ref="B66:I66"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="B69:I69"/>
+    <mergeCell ref="B70:I70"/>
+    <mergeCell ref="B71:I71"/>
+    <mergeCell ref="B72:I72"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+  </mergeCells>
+  <pageMargins left="0.68" right="0.44" top="0.32" bottom="0.16" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="2" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I11" s="6">
+        <v>221</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I12" s="6">
+        <v>275.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="4">
+        <v>100</v>
+      </c>
+      <c r="E14" s="4">
+        <v>100</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" s="4">
+        <v>10</v>
+      </c>
+      <c r="E15" s="4">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D16" s="4">
+        <v>9</v>
+      </c>
+      <c r="E16" s="4">
+        <v>9</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="4">
+        <v>30</v>
+      </c>
+      <c r="E17" s="4">
+        <v>30</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4">
+        <v>109.674</v>
+      </c>
+      <c r="E22" s="4">
+        <v>109.674</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D23" s="4">
+        <v>80</v>
+      </c>
+      <c r="E23" s="4">
+        <v>80</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D24" s="4">
+        <v>43.15</v>
+      </c>
+      <c r="E24" s="4">
+        <v>43.15</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D25" s="4">
+        <v>3.384</v>
+      </c>
+      <c r="E25" s="4">
+        <v>3.384</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D26" s="4">
+        <v>3.384</v>
+      </c>
+      <c r="E26" s="4">
+        <v>3.384</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D27" s="4">
+        <v>74.608</v>
+      </c>
+      <c r="E27" s="4">
+        <v>74.608</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="J32" s="5"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="J33" s="5"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="5">
+        <v>10</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="5">
+        <v>30</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="J35" s="5"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="6">
+        <v>4</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E38" s="6">
+        <v>600</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H38" s="5"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="H40" s="5"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="H41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="L43" s="10"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="L45" s="10"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L47" s="10"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J49" s="5"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="10"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="L52" s="10"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="H54" s="5"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H56" s="5"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H57" s="5"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H58" s="5"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H59" s="5"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H60" s="5"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="H61" s="5"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="J73" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="156">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:L55"/>
+    <mergeCell ref="G42:L42"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="D28:L28"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="I57:L57"/>
+    <mergeCell ref="I58:L58"/>
+    <mergeCell ref="I59:L59"/>
+    <mergeCell ref="I60:L60"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="J73:L73"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="B62:I62"/>
+    <mergeCell ref="B63:I63"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B65:I65"/>
+    <mergeCell ref="B66:I66"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="B69:I69"/>
+    <mergeCell ref="B70:I70"/>
+    <mergeCell ref="B71:I71"/>
+    <mergeCell ref="B72:I72"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+  </mergeCells>
+  <pageMargins left="0.68" right="0.44" top="0.32" bottom="0.16" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="2" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I11" s="6">
+        <v>221</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I12" s="6">
+        <v>275.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="4">
+        <v>100</v>
+      </c>
+      <c r="E14" s="4">
+        <v>100</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4">
+        <v>100</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" s="4">
+        <v>10</v>
+      </c>
+      <c r="E15" s="4">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4">
+        <v>10</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D16" s="4">
+        <v>9</v>
+      </c>
+      <c r="E16" s="4">
+        <v>9</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4">
+        <v>6</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="4">
+        <v>30</v>
+      </c>
+      <c r="E17" s="4">
+        <v>30</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4">
+        <v>30</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4">
+        <v>1.09</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4">
+        <v>109.674</v>
+      </c>
+      <c r="E22" s="4">
+        <v>109.674</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4">
+        <v>60.349</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D23" s="4">
+        <v>80</v>
+      </c>
+      <c r="E23" s="4">
+        <v>80</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4">
+        <v>80</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D24" s="4">
+        <v>24.64</v>
+      </c>
+      <c r="E24" s="4">
+        <v>24.64</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4">
+        <v>66.27</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.861</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.861</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4">
+        <v>0.861</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.861</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.861</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4">
+        <v>0.861</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D27" s="4">
+        <v>332.204</v>
+      </c>
+      <c r="E27" s="4">
+        <v>332.204</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4">
+        <v>603.723</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="J32" s="5"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="J33" s="5"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="5">
+        <v>10</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="5">
+        <v>30</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="J35" s="5"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="6">
+        <v>8</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E38" s="6">
+        <v>300</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H38" s="5"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="H40" s="5"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="H41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="10"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="10"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="10"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="10"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="10"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="H54" s="5"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H56" s="5"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H57" s="5"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H58" s="5"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H59" s="5"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H60" s="5"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="H61" s="5"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="J73" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="156">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:L55"/>
+    <mergeCell ref="G42:L42"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="D28:L28"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="I57:L57"/>
+    <mergeCell ref="I58:L58"/>
+    <mergeCell ref="I59:L59"/>
+    <mergeCell ref="I60:L60"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="J73:L73"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="B62:I62"/>
+    <mergeCell ref="B63:I63"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B65:I65"/>
+    <mergeCell ref="B66:I66"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="B69:I69"/>
+    <mergeCell ref="B70:I70"/>
+    <mergeCell ref="B71:I71"/>
+    <mergeCell ref="B72:I72"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+  </mergeCells>
+  <pageMargins left="0.68" right="0.44" top="0.32" bottom="0.16" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="2" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I11" s="6">
+        <v>100</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I12" s="6">
+        <v>275.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" s="4">
+        <v>10</v>
+      </c>
+      <c r="E15" s="4">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4">
+        <v>10</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D16" s="4">
+        <v>9</v>
+      </c>
+      <c r="E16" s="4">
+        <v>9</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4">
+        <v>9</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="4">
+        <v>30</v>
+      </c>
+      <c r="E17" s="4">
+        <v>30</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4">
+        <v>30</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4">
+        <v>0.647</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.626</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4">
+        <v>1279.524</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1276.459</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4">
+        <v>1295.559</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D23" s="4">
+        <v>64</v>
+      </c>
+      <c r="E23" s="4">
+        <v>64</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4">
+        <v>64</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D24" s="4">
+        <v>63.54</v>
+      </c>
+      <c r="E24" s="4">
+        <v>63.6</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4">
+        <v>63.64</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D25" s="4">
+        <v>8.609</v>
+      </c>
+      <c r="E25" s="4">
+        <v>8.609</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4">
+        <v>8.609</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D26" s="4">
+        <v>8.609</v>
+      </c>
+      <c r="E26" s="4">
+        <v>8.609</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4">
+        <v>8.609</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.277</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.277</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4">
+        <v>0.275</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="J32" s="5"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="J33" s="5"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="5">
+        <v>10</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="5">
+        <v>30</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="J35" s="5"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="6">
+        <v>8</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E38" s="6">
+        <v>150</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H38" s="5"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="H40" s="5"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="H41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="10"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="10"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="10"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="10"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="10"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="H54" s="5"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H56" s="5"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H57" s="5"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H58" s="5"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H59" s="5"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H60" s="5"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="H61" s="5"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="J73" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="156">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:L55"/>
+    <mergeCell ref="G42:L42"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="D28:L28"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="I57:L57"/>
+    <mergeCell ref="I58:L58"/>
+    <mergeCell ref="I59:L59"/>
+    <mergeCell ref="I60:L60"/>
+    <mergeCell ref="I61:L61"/>
     <mergeCell ref="A73:D73"/>
     <mergeCell ref="J73:L73"/>
     <mergeCell ref="C1:H1"/>
